--- a/4_aviation/co2_emissions_by_distance/data/data.xlsx
+++ b/4_aviation/co2_emissions_by_distance/data/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/co2_emissions_by_distance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D95E16-037C-7C45-95F3-BF6B000C967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E69FB-C8F5-5F44-8ED3-B5ABB5A5B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{07FAAA80-F19F-1440-BA92-EA7FBCF701C4}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="2" xr2:uid="{07FAAA80-F19F-1440-BA92-EA7FBCF701C4}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
     <sheet name="EU" sheetId="2" r:id="rId2"/>
+    <sheet name="Emissions Distance Function" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -55,6 +56,42 @@
   </si>
   <si>
     <t>https://www.eurocontrol.int/publication/eurocontrol-think-paper-21-long-haul-flight-decarbonisation-when-can-cutting-edge</t>
+  </si>
+  <si>
+    <t>x_737_upper</t>
+  </si>
+  <si>
+    <t>y_737_upper</t>
+  </si>
+  <si>
+    <t>x_737_average</t>
+  </si>
+  <si>
+    <t>y_737_average</t>
+  </si>
+  <si>
+    <t>x_737_lower</t>
+  </si>
+  <si>
+    <t>y_737_lower</t>
+  </si>
+  <si>
+    <t>x_747_upper</t>
+  </si>
+  <si>
+    <t>y_747_upper</t>
+  </si>
+  <si>
+    <t>x_747_average</t>
+  </si>
+  <si>
+    <t>y_747_average</t>
+  </si>
+  <si>
+    <t>x_747_lower</t>
+  </si>
+  <si>
+    <t>y_747_lower</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2186D8A-AC5B-C34A-87CD-CA6D1E98070A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1850,4 +1887,266 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0F9E79-4337-0D4F-B5AD-C1EC838734E3}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>261.92877971298998</v>
+      </c>
+      <c r="B2">
+        <v>0.18532890100114799</v>
+      </c>
+      <c r="C2">
+        <v>257.85206718827499</v>
+      </c>
+      <c r="D2">
+        <v>0.14975958422300301</v>
+      </c>
+      <c r="E2">
+        <v>255.098498202282</v>
+      </c>
+      <c r="F2">
+        <v>0.12573469482022001</v>
+      </c>
+      <c r="G2">
+        <v>3723.03983287862</v>
+      </c>
+      <c r="H2">
+        <v>8.3522839871321294E-2</v>
+      </c>
+      <c r="I2">
+        <v>3720.8584340715402</v>
+      </c>
+      <c r="J2">
+        <v>6.4490135279506602E-2</v>
+      </c>
+      <c r="K2">
+        <v>3719.4995298966301</v>
+      </c>
+      <c r="L2">
+        <v>5.2633696353458097E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>473.54234431830503</v>
+      </c>
+      <c r="B3">
+        <v>0.131657252182516</v>
+      </c>
+      <c r="C3">
+        <v>358.393095813174</v>
+      </c>
+      <c r="D3">
+        <v>0.126980058975249</v>
+      </c>
+      <c r="E3">
+        <v>480.10442105764997</v>
+      </c>
+      <c r="F3">
+        <v>8.8911371733303102E-2</v>
+      </c>
+      <c r="G3">
+        <v>5614.0086332135797</v>
+      </c>
+      <c r="H3">
+        <v>8.22256227938295E-2</v>
+      </c>
+      <c r="I3">
+        <v>5565.9820988215297</v>
+      </c>
+      <c r="J3">
+        <v>6.3194110223220801E-2</v>
+      </c>
+      <c r="K3">
+        <v>5564.65895528281</v>
+      </c>
+      <c r="L3">
+        <v>5.16496828478578E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>940.37956935253806</v>
+      </c>
+      <c r="B4">
+        <v>0.104812040606202</v>
+      </c>
+      <c r="C4">
+        <v>481.99973477528101</v>
+      </c>
+      <c r="D4">
+        <v>0.105447983919633</v>
+      </c>
+      <c r="E4">
+        <v>936.51742064491202</v>
+      </c>
+      <c r="F4">
+        <v>7.1114793132169798E-2</v>
+      </c>
+      <c r="G4">
+        <v>11139.134205197501</v>
+      </c>
+      <c r="H4">
+        <v>8.8946238353580301E-2</v>
+      </c>
+      <c r="I4">
+        <v>8901.5017977169791</v>
+      </c>
+      <c r="J4">
+        <v>6.5603483085964101E-2</v>
+      </c>
+      <c r="K4">
+        <v>11123.8465332298</v>
+      </c>
+      <c r="L4">
+        <v>5.55613004355347E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1397.7938667528799</v>
+      </c>
+      <c r="B5">
+        <v>9.57517854242627E-2</v>
+      </c>
+      <c r="C5">
+        <v>938.019367364544</v>
+      </c>
+      <c r="D5">
+        <v>8.4219278260960206E-2</v>
+      </c>
+      <c r="E5">
+        <v>1394.2893244070799</v>
+      </c>
+      <c r="F5">
+        <v>6.5174653457084994E-2</v>
+      </c>
+      <c r="I5">
+        <v>11148.342569014299</v>
+      </c>
+      <c r="J5">
+        <v>6.9289212655093094E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1855.7445736959601</v>
+      </c>
+      <c r="B6">
+        <v>9.1371703502605303E-2</v>
+      </c>
+      <c r="C6">
+        <v>1395.6839892181599</v>
+      </c>
+      <c r="D6">
+        <v>7.7343103933819005E-2</v>
+      </c>
+      <c r="E6">
+        <v>1863.84435779112</v>
+      </c>
+      <c r="F6">
+        <v>6.2042319732868001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2772.3612003057501</v>
+      </c>
+      <c r="B7">
+        <v>8.8851770673000194E-2</v>
+      </c>
+      <c r="C7">
+        <v>1865.13174069366</v>
+      </c>
+      <c r="D7">
+        <v>7.3274735557545601E-2</v>
+      </c>
+      <c r="E7">
+        <v>2769.0712217770301</v>
+      </c>
+      <c r="F7">
+        <v>6.0146708009935497E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3712.1149585251101</v>
+      </c>
+      <c r="B8">
+        <v>8.8203311136905105E-2</v>
+      </c>
+      <c r="C8">
+        <v>2747.4360368870898</v>
+      </c>
+      <c r="D8">
+        <v>7.1379719845216003E-2</v>
+      </c>
+      <c r="E8">
+        <v>3720.3220245288098</v>
+      </c>
+      <c r="F8">
+        <v>5.9809962019224297E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>3733.0706913275899</v>
+      </c>
+      <c r="D9">
+        <v>7.1042079838600294E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>